--- a/Data/LoginUserData_app.xlsx
+++ b/Data/LoginUserData_app.xlsx
@@ -16,10 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>lulei1020!*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -29,6 +25,10 @@
   </si>
   <si>
     <t>lulei1020@126.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>******</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +406,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,18 +417,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Data/LoginUserData_app.xlsx
+++ b/Data/LoginUserData_app.xlsx
@@ -14,21 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>UserName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lulei1020@126.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>******</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +398,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -424,11 +416,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>15950554416</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="1">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
